--- a/Dico.xlsx
+++ b/Dico.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
   <si>
     <t>Ressources - Dictionnaire</t>
   </si>
@@ -196,6 +196,141 @@
   </si>
   <si>
     <t>Sunday</t>
+  </si>
+  <si>
+    <t>#LAY08</t>
+  </si>
+  <si>
+    <t>depose_address</t>
+  </si>
+  <si>
+    <t>Adresse de dépose</t>
+  </si>
+  <si>
+    <t>depose_day</t>
+  </si>
+  <si>
+    <t>Date de dépose</t>
+  </si>
+  <si>
+    <t>depose_hour</t>
+  </si>
+  <si>
+    <t>Heure de dépose</t>
+  </si>
+  <si>
+    <t>retrait_day</t>
+  </si>
+  <si>
+    <t>Date de retrait</t>
+  </si>
+  <si>
+    <t>retrait_hour</t>
+  </si>
+  <si>
+    <t>Heure de retrait</t>
+  </si>
+  <si>
+    <t>nb_luggage</t>
+  </si>
+  <si>
+    <t>Nombre de bagages</t>
+  </si>
+  <si>
+    <t>Reserve</t>
+  </si>
+  <si>
+    <t>Réserver</t>
+  </si>
+  <si>
+    <t>reserve_title</t>
+  </si>
+  <si>
+    <t>Réservation de votre consigne</t>
+  </si>
+  <si>
+    <t>#LAY09</t>
+  </si>
+  <si>
+    <t>detail_reserve_title</t>
+  </si>
+  <si>
+    <t>Détail de votre consigne</t>
+  </si>
+  <si>
+    <t>price_calc</t>
+  </si>
+  <si>
+    <t>Prix calculé</t>
+  </si>
+  <si>
+    <t>#LAY10</t>
+  </si>
+  <si>
+    <t>waiting_request</t>
+  </si>
+  <si>
+    <t>Demande en attente</t>
+  </si>
+  <si>
+    <t>Waiting request</t>
+  </si>
+  <si>
+    <t>current_stockage</t>
+  </si>
+  <si>
+    <t>Stockage en cours</t>
+  </si>
+  <si>
+    <t>waiting_depose</t>
+  </si>
+  <si>
+    <t>Attente de dépose</t>
+  </si>
+  <si>
+    <t>#LAY11</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Historique</t>
+  </si>
+  <si>
+    <t>#LAY12</t>
+  </si>
+  <si>
+    <t>depos_luggage_title</t>
+  </si>
+  <si>
+    <t>Dépos de bagage</t>
+  </si>
+  <si>
+    <t>cancel_reservation</t>
+  </si>
+  <si>
+    <t>Annuler la réservation</t>
+  </si>
+  <si>
+    <t>depose_luggage</t>
+  </si>
+  <si>
+    <t>Déposer les bagages</t>
+  </si>
+  <si>
+    <t>#LAY13</t>
+  </si>
+  <si>
+    <t>retrait_luggage_title</t>
+  </si>
+  <si>
+    <t>Retrait de bagage</t>
+  </si>
+  <si>
+    <t>end_stockage</t>
+  </si>
+  <si>
+    <t>Fin de stockage</t>
   </si>
 </sst>
 </file>
@@ -367,7 +502,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -405,12 +540,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1495,7 +1624,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G23"/>
+  <dimension ref="A2:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1503,7 +1632,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7656" style="1" customWidth="1"/>
     <col min="3" max="3" width="43.2656" style="1" customWidth="1"/>
     <col min="4" max="4" width="43.5" style="1" customWidth="1"/>
     <col min="5" max="7" width="16.3516" style="1" customWidth="1"/>
@@ -1845,31 +1975,293 @@
       <c r="G20" s="12"/>
     </row>
     <row r="21" ht="22.35" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="12"/>
+      <c r="A21" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s" s="10">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s" s="11">
+        <v>63</v>
+      </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
     </row>
     <row r="22" ht="22.35" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="12"/>
+      <c r="A22" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s" s="10">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s" s="11">
+        <v>65</v>
+      </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
     </row>
     <row r="23" ht="22.35" customHeight="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="12"/>
+      <c r="A23" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s" s="10">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s" s="11">
+        <v>67</v>
+      </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
+    </row>
+    <row r="24" ht="22.35" customHeight="1">
+      <c r="A24" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s" s="10">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s" s="11">
+        <v>69</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" ht="22.35" customHeight="1">
+      <c r="A25" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s" s="11">
+        <v>71</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" ht="22.35" customHeight="1">
+      <c r="A26" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s" s="10">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s" s="11">
+        <v>73</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" ht="22.35" customHeight="1">
+      <c r="A27" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s" s="10">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s" s="11">
+        <v>75</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" ht="22.35" customHeight="1">
+      <c r="A28" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="C28" t="s" s="11">
+        <v>77</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" ht="22.35" customHeight="1">
+      <c r="A29" t="s" s="9">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s" s="10">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s" s="11">
+        <v>80</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" ht="22.35" customHeight="1">
+      <c r="A30" t="s" s="9">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s" s="11">
+        <v>82</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" ht="22.35" customHeight="1">
+      <c r="A31" t="s" s="9">
+        <v>83</v>
+      </c>
+      <c r="B31" t="s" s="10">
+        <v>84</v>
+      </c>
+      <c r="C31" t="s" s="11">
+        <v>85</v>
+      </c>
+      <c r="D31" t="s" s="11">
+        <v>86</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" ht="22.35" customHeight="1">
+      <c r="A32" t="s" s="9">
+        <v>83</v>
+      </c>
+      <c r="B32" t="s" s="10">
+        <v>87</v>
+      </c>
+      <c r="C32" t="s" s="11">
+        <v>88</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" ht="22.35" customHeight="1">
+      <c r="A33" t="s" s="9">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s" s="10">
+        <v>89</v>
+      </c>
+      <c r="C33" t="s" s="11">
+        <v>90</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" ht="22.35" customHeight="1">
+      <c r="A34" t="s" s="9">
+        <v>91</v>
+      </c>
+      <c r="B34" t="s" s="10">
+        <v>92</v>
+      </c>
+      <c r="C34" t="s" s="11">
+        <v>93</v>
+      </c>
+      <c r="D34" t="s" s="11">
+        <v>92</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" ht="22.35" customHeight="1">
+      <c r="A35" t="s" s="9">
+        <v>94</v>
+      </c>
+      <c r="B35" t="s" s="10">
+        <v>95</v>
+      </c>
+      <c r="C35" t="s" s="11">
+        <v>96</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" ht="22.35" customHeight="1">
+      <c r="A36" t="s" s="9">
+        <v>94</v>
+      </c>
+      <c r="B36" t="s" s="10">
+        <v>97</v>
+      </c>
+      <c r="C36" t="s" s="11">
+        <v>98</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" ht="22.35" customHeight="1">
+      <c r="A37" t="s" s="9">
+        <v>94</v>
+      </c>
+      <c r="B37" t="s" s="10">
+        <v>99</v>
+      </c>
+      <c r="C37" t="s" s="11">
+        <v>100</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" ht="22.35" customHeight="1">
+      <c r="A38" t="s" s="9">
+        <v>101</v>
+      </c>
+      <c r="B38" t="s" s="10">
+        <v>102</v>
+      </c>
+      <c r="C38" t="s" s="11">
+        <v>103</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" ht="22.35" customHeight="1">
+      <c r="A39" t="s" s="9">
+        <v>101</v>
+      </c>
+      <c r="B39" t="s" s="10">
+        <v>104</v>
+      </c>
+      <c r="C39" t="s" s="11">
+        <v>105</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
